--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Efna1-Epha2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Efna1-Epha2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.3836423893978</v>
+        <v>18.33198466666667</v>
       </c>
       <c r="H2">
-        <v>15.3836423893978</v>
+        <v>54.995954</v>
       </c>
       <c r="I2">
-        <v>0.8808402222010899</v>
+        <v>0.8831875137004506</v>
       </c>
       <c r="J2">
-        <v>0.8808402222010899</v>
+        <v>0.8831875137004505</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.346324873991859</v>
+        <v>12.64154566666667</v>
       </c>
       <c r="N2">
-        <v>9.346324873991859</v>
+        <v>37.924637</v>
       </c>
       <c r="O2">
-        <v>0.4476158920754711</v>
+        <v>0.5019409384896431</v>
       </c>
       <c r="P2">
-        <v>0.4476158920754711</v>
+        <v>0.5019409384896429</v>
       </c>
       <c r="Q2">
-        <v>143.7805195166242</v>
+        <v>231.7446213242998</v>
       </c>
       <c r="R2">
-        <v>143.7805195166242</v>
+        <v>2085.701591918698</v>
       </c>
       <c r="S2">
-        <v>0.3942780818364971</v>
+        <v>0.4433079694891386</v>
       </c>
       <c r="T2">
-        <v>0.3942780818364971</v>
+        <v>0.4433079694891385</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.3836423893978</v>
+        <v>18.33198466666667</v>
       </c>
       <c r="H3">
-        <v>15.3836423893978</v>
+        <v>54.995954</v>
       </c>
       <c r="I3">
-        <v>0.8808402222010899</v>
+        <v>0.8831875137004506</v>
       </c>
       <c r="J3">
-        <v>0.8808402222010899</v>
+        <v>0.8831875137004505</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.21120802201027</v>
+        <v>1.291159666666667</v>
       </c>
       <c r="N3">
-        <v>1.21120802201027</v>
+        <v>3.873479</v>
       </c>
       <c r="O3">
-        <v>0.05800739505318912</v>
+        <v>0.05126634921989955</v>
       </c>
       <c r="P3">
-        <v>0.05800739505318912</v>
+        <v>0.05126634921989955</v>
       </c>
       <c r="Q3">
-        <v>18.63279106977585</v>
+        <v>23.66951921155178</v>
       </c>
       <c r="R3">
-        <v>18.63279106977585</v>
+        <v>213.025672903966</v>
       </c>
       <c r="S3">
-        <v>0.05109524674795751</v>
+        <v>0.04527779950402212</v>
       </c>
       <c r="T3">
-        <v>0.05109524674795751</v>
+        <v>0.04527779950402212</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.3836423893978</v>
+        <v>18.33198466666667</v>
       </c>
       <c r="H4">
-        <v>15.3836423893978</v>
+        <v>54.995954</v>
       </c>
       <c r="I4">
-        <v>0.8808402222010899</v>
+        <v>0.8831875137004506</v>
       </c>
       <c r="J4">
-        <v>0.8808402222010899</v>
+        <v>0.8831875137004505</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.838170222010083</v>
+        <v>0.97959</v>
       </c>
       <c r="N4">
-        <v>0.838170222010083</v>
+        <v>2.93877</v>
       </c>
       <c r="O4">
-        <v>0.04014180083555115</v>
+        <v>0.03889526936817373</v>
       </c>
       <c r="P4">
-        <v>0.04014180083555115</v>
+        <v>0.03889526936817372</v>
       </c>
       <c r="Q4">
-        <v>12.89411095684528</v>
+        <v>17.95782885962</v>
       </c>
       <c r="R4">
-        <v>12.89411095684528</v>
+        <v>161.62045973658</v>
       </c>
       <c r="S4">
-        <v>0.03535851276753878</v>
+        <v>0.03435181624798665</v>
       </c>
       <c r="T4">
-        <v>0.03535851276753878</v>
+        <v>0.03435181624798664</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.3836423893978</v>
+        <v>18.33198466666667</v>
       </c>
       <c r="H5">
-        <v>15.3836423893978</v>
+        <v>54.995954</v>
       </c>
       <c r="I5">
-        <v>0.8808402222010899</v>
+        <v>0.8831875137004506</v>
       </c>
       <c r="J5">
-        <v>0.8808402222010899</v>
+        <v>0.8831875137004505</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.664244299965148</v>
+        <v>1.079938333333333</v>
       </c>
       <c r="N5">
-        <v>0.664244299965148</v>
+        <v>3.239815</v>
       </c>
       <c r="O5">
-        <v>0.03181210891912396</v>
+        <v>0.04287966636655804</v>
       </c>
       <c r="P5">
-        <v>0.03181210891912396</v>
+        <v>0.04287966636655803</v>
       </c>
       <c r="Q5">
-        <v>10.21849676985972</v>
+        <v>19.79741296761222</v>
       </c>
       <c r="R5">
-        <v>10.21849676985972</v>
+        <v>178.17671670851</v>
       </c>
       <c r="S5">
-        <v>0.02802138508900643</v>
+        <v>0.03787078592658523</v>
       </c>
       <c r="T5">
-        <v>0.02802138508900643</v>
+        <v>0.03787078592658522</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.3836423893978</v>
+        <v>18.33198466666667</v>
       </c>
       <c r="H6">
-        <v>15.3836423893978</v>
+        <v>54.995954</v>
       </c>
       <c r="I6">
-        <v>0.8808402222010899</v>
+        <v>0.8831875137004506</v>
       </c>
       <c r="J6">
-        <v>0.8808402222010899</v>
+        <v>0.8831875137004505</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>8.82028726416392</v>
+        <v>0.265959</v>
       </c>
       <c r="N6">
-        <v>8.82028726416392</v>
+        <v>0.7978769999999999</v>
       </c>
       <c r="O6">
-        <v>0.4224228031166647</v>
+        <v>0.01056007814074267</v>
       </c>
       <c r="P6">
-        <v>0.4224228031166647</v>
+        <v>0.01056007814074267</v>
       </c>
       <c r="Q6">
-        <v>135.6881450436576</v>
+        <v>4.875556309962001</v>
       </c>
       <c r="R6">
-        <v>135.6881450436576</v>
+        <v>43.880006789658</v>
       </c>
       <c r="S6">
-        <v>0.3720869957600902</v>
+        <v>0.009326529157605</v>
       </c>
       <c r="T6">
-        <v>0.3720869957600902</v>
+        <v>0.009326529157604997</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.27957900527732</v>
+        <v>18.33198466666667</v>
       </c>
       <c r="H7">
-        <v>1.27957900527732</v>
+        <v>54.995954</v>
       </c>
       <c r="I7">
-        <v>0.07326643630959009</v>
+        <v>0.8831875137004506</v>
       </c>
       <c r="J7">
-        <v>0.07326643630959009</v>
+        <v>0.8831875137004505</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.346324873991859</v>
+        <v>8.927132333333335</v>
       </c>
       <c r="N7">
-        <v>9.346324873991859</v>
+        <v>26.781397</v>
       </c>
       <c r="O7">
-        <v>0.4476158920754711</v>
+        <v>0.3544576984149831</v>
       </c>
       <c r="P7">
-        <v>0.4476158920754711</v>
+        <v>0.3544576984149831</v>
       </c>
       <c r="Q7">
-        <v>11.95936108526118</v>
+        <v>163.6520530519709</v>
       </c>
       <c r="R7">
-        <v>11.95936108526118</v>
+        <v>1472.868477467738</v>
       </c>
       <c r="S7">
-        <v>0.03279522124790786</v>
+        <v>0.3130526133751131</v>
       </c>
       <c r="T7">
-        <v>0.03279522124790786</v>
+        <v>0.313052613375113</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.27957900527732</v>
+        <v>1.394651</v>
       </c>
       <c r="H8">
-        <v>1.27957900527732</v>
+        <v>4.183953000000001</v>
       </c>
       <c r="I8">
-        <v>0.07326643630959009</v>
+        <v>0.06719067092662021</v>
       </c>
       <c r="J8">
-        <v>0.07326643630959009</v>
+        <v>0.06719067092662019</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.21120802201027</v>
+        <v>12.64154566666667</v>
       </c>
       <c r="N8">
-        <v>1.21120802201027</v>
+        <v>37.924637</v>
       </c>
       <c r="O8">
-        <v>0.05800739505318912</v>
+        <v>0.5019409384896431</v>
       </c>
       <c r="P8">
-        <v>0.05800739505318912</v>
+        <v>0.5019409384896429</v>
       </c>
       <c r="Q8">
-        <v>1.549836355987811</v>
+        <v>17.63054430556234</v>
       </c>
       <c r="R8">
-        <v>1.549836355987811</v>
+        <v>158.674898750061</v>
       </c>
       <c r="S8">
-        <v>0.004249995115149712</v>
+        <v>0.03372574842265652</v>
       </c>
       <c r="T8">
-        <v>0.004249995115149712</v>
+        <v>0.03372574842265651</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.27957900527732</v>
+        <v>1.394651</v>
       </c>
       <c r="H9">
-        <v>1.27957900527732</v>
+        <v>4.183953000000001</v>
       </c>
       <c r="I9">
-        <v>0.07326643630959009</v>
+        <v>0.06719067092662021</v>
       </c>
       <c r="J9">
-        <v>0.07326643630959009</v>
+        <v>0.06719067092662019</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.838170222010083</v>
+        <v>1.291159666666667</v>
       </c>
       <c r="N9">
-        <v>0.838170222010083</v>
+        <v>3.873479</v>
       </c>
       <c r="O9">
-        <v>0.04014180083555115</v>
+        <v>0.05126634921989955</v>
       </c>
       <c r="P9">
-        <v>0.04014180083555115</v>
+        <v>0.05126634921989955</v>
       </c>
       <c r="Q9">
-        <v>1.072505018932732</v>
+        <v>1.800717120276334</v>
       </c>
       <c r="R9">
-        <v>1.072505018932732</v>
+        <v>16.206454082487</v>
       </c>
       <c r="S9">
-        <v>0.002941046694270159</v>
+        <v>0.003444620400043463</v>
       </c>
       <c r="T9">
-        <v>0.002941046694270159</v>
+        <v>0.003444620400043463</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.27957900527732</v>
+        <v>1.394651</v>
       </c>
       <c r="H10">
-        <v>1.27957900527732</v>
+        <v>4.183953000000001</v>
       </c>
       <c r="I10">
-        <v>0.07326643630959009</v>
+        <v>0.06719067092662021</v>
       </c>
       <c r="J10">
-        <v>0.07326643630959009</v>
+        <v>0.06719067092662019</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.664244299965148</v>
+        <v>0.97959</v>
       </c>
       <c r="N10">
-        <v>0.664244299965148</v>
+        <v>2.93877</v>
       </c>
       <c r="O10">
-        <v>0.03181210891912396</v>
+        <v>0.03889526936817373</v>
       </c>
       <c r="P10">
-        <v>0.03181210891912396</v>
+        <v>0.03889526936817372</v>
       </c>
       <c r="Q10">
-        <v>0.8499530606105338</v>
+        <v>1.36618617309</v>
       </c>
       <c r="R10">
-        <v>0.8499530606105338</v>
+        <v>12.29567555781</v>
       </c>
       <c r="S10">
-        <v>0.002330759851996739</v>
+        <v>0.002613399244719212</v>
       </c>
       <c r="T10">
-        <v>0.002330759851996739</v>
+        <v>0.002613399244719211</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.27957900527732</v>
+        <v>1.394651</v>
       </c>
       <c r="H11">
-        <v>1.27957900527732</v>
+        <v>4.183953000000001</v>
       </c>
       <c r="I11">
-        <v>0.07326643630959009</v>
+        <v>0.06719067092662021</v>
       </c>
       <c r="J11">
-        <v>0.07326643630959009</v>
+        <v>0.06719067092662019</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.82028726416392</v>
+        <v>1.079938333333333</v>
       </c>
       <c r="N11">
-        <v>8.82028726416392</v>
+        <v>3.239815</v>
       </c>
       <c r="O11">
-        <v>0.4224228031166647</v>
+        <v>0.04287966636655804</v>
       </c>
       <c r="P11">
-        <v>0.4224228031166647</v>
+        <v>0.04287966636655803</v>
       </c>
       <c r="Q11">
-        <v>11.28625440373908</v>
+        <v>1.506137076521667</v>
       </c>
       <c r="R11">
-        <v>11.28625440373908</v>
+        <v>13.555233688695</v>
       </c>
       <c r="S11">
-        <v>0.03094941340026564</v>
+        <v>0.002881113552278665</v>
       </c>
       <c r="T11">
-        <v>0.03094941340026564</v>
+        <v>0.002881113552278664</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.801515116739338</v>
+        <v>1.394651</v>
       </c>
       <c r="H12">
-        <v>0.801515116739338</v>
+        <v>4.183953000000001</v>
       </c>
       <c r="I12">
-        <v>0.04589334148931994</v>
+        <v>0.06719067092662021</v>
       </c>
       <c r="J12">
-        <v>0.04589334148931994</v>
+        <v>0.06719067092662019</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>9.346324873991859</v>
+        <v>0.265959</v>
       </c>
       <c r="N12">
-        <v>9.346324873991859</v>
+        <v>0.7978769999999999</v>
       </c>
       <c r="O12">
-        <v>0.4476158920754711</v>
+        <v>0.01056007814074267</v>
       </c>
       <c r="P12">
-        <v>0.4476158920754711</v>
+        <v>0.01056007814074267</v>
       </c>
       <c r="Q12">
-        <v>7.491220672461363</v>
+        <v>0.3709199853090001</v>
       </c>
       <c r="R12">
-        <v>7.491220672461363</v>
+        <v>3.338279867781</v>
       </c>
       <c r="S12">
-        <v>0.02054258899106618</v>
+        <v>0.0007095387353140364</v>
       </c>
       <c r="T12">
-        <v>0.02054258899106618</v>
+        <v>0.0007095387353140361</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.801515116739338</v>
+        <v>1.394651</v>
       </c>
       <c r="H13">
-        <v>0.801515116739338</v>
+        <v>4.183953000000001</v>
       </c>
       <c r="I13">
-        <v>0.04589334148931994</v>
+        <v>0.06719067092662021</v>
       </c>
       <c r="J13">
-        <v>0.04589334148931994</v>
+        <v>0.06719067092662019</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.21120802201027</v>
+        <v>8.927132333333335</v>
       </c>
       <c r="N13">
-        <v>1.21120802201027</v>
+        <v>26.781397</v>
       </c>
       <c r="O13">
-        <v>0.05800739505318912</v>
+        <v>0.3544576984149831</v>
       </c>
       <c r="P13">
-        <v>0.05800739505318912</v>
+        <v>0.3544576984149831</v>
       </c>
       <c r="Q13">
-        <v>0.970801539157184</v>
+        <v>12.45023403581567</v>
       </c>
       <c r="R13">
-        <v>0.970801539157184</v>
+        <v>112.052106322341</v>
       </c>
       <c r="S13">
-        <v>0.002662153190081897</v>
+        <v>0.02381625057160832</v>
       </c>
       <c r="T13">
-        <v>0.002662153190081897</v>
+        <v>0.02381625057160831</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.801515116739338</v>
+        <v>0.03741866666666666</v>
       </c>
       <c r="H14">
-        <v>0.801515116739338</v>
+        <v>0.112256</v>
       </c>
       <c r="I14">
-        <v>0.04589334148931994</v>
+        <v>0.001802734389114475</v>
       </c>
       <c r="J14">
-        <v>0.04589334148931994</v>
+        <v>0.001802734389114475</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.838170222010083</v>
+        <v>12.64154566666667</v>
       </c>
       <c r="N14">
-        <v>0.838170222010083</v>
+        <v>37.924637</v>
       </c>
       <c r="O14">
-        <v>0.04014180083555115</v>
+        <v>0.5019409384896431</v>
       </c>
       <c r="P14">
-        <v>0.04014180083555115</v>
+        <v>0.5019409384896429</v>
       </c>
       <c r="Q14">
-        <v>0.6718061033418484</v>
+        <v>0.4730297834524444</v>
       </c>
       <c r="R14">
-        <v>0.6718061033418484</v>
+        <v>4.257268051072001</v>
       </c>
       <c r="S14">
-        <v>0.001842241373742218</v>
+        <v>0.000904866191119673</v>
       </c>
       <c r="T14">
-        <v>0.001842241373742218</v>
+        <v>0.0009048661911196727</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.801515116739338</v>
+        <v>0.03741866666666666</v>
       </c>
       <c r="H15">
-        <v>0.801515116739338</v>
+        <v>0.112256</v>
       </c>
       <c r="I15">
-        <v>0.04589334148931994</v>
+        <v>0.001802734389114475</v>
       </c>
       <c r="J15">
-        <v>0.04589334148931994</v>
+        <v>0.001802734389114475</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.664244299965148</v>
+        <v>1.291159666666667</v>
       </c>
       <c r="N15">
-        <v>0.664244299965148</v>
+        <v>3.873479</v>
       </c>
       <c r="O15">
-        <v>0.03181210891912396</v>
+        <v>0.05126634921989955</v>
       </c>
       <c r="P15">
-        <v>0.03181210891912396</v>
+        <v>0.05126634921989955</v>
       </c>
       <c r="Q15">
-        <v>0.5324018476300054</v>
+        <v>0.04831347318044444</v>
       </c>
       <c r="R15">
-        <v>0.5324018476300054</v>
+        <v>0.434821258624</v>
       </c>
       <c r="S15">
-        <v>0.001459963978120797</v>
+        <v>9.241961074306496E-05</v>
       </c>
       <c r="T15">
-        <v>0.001459963978120797</v>
+        <v>9.241961074306495E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1396,619 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.03741866666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.112256</v>
+      </c>
+      <c r="I16">
+        <v>0.001802734389114475</v>
+      </c>
+      <c r="J16">
+        <v>0.001802734389114475</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.97959</v>
+      </c>
+      <c r="N16">
+        <v>2.93877</v>
+      </c>
+      <c r="O16">
+        <v>0.03889526936817373</v>
+      </c>
+      <c r="P16">
+        <v>0.03889526936817372</v>
+      </c>
+      <c r="Q16">
+        <v>0.03665495167999999</v>
+      </c>
+      <c r="R16">
+        <v>0.32989456512</v>
+      </c>
+      <c r="S16">
+        <v>7.011783966387763E-05</v>
+      </c>
+      <c r="T16">
+        <v>7.011783966387761E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.03741866666666666</v>
+      </c>
+      <c r="H17">
+        <v>0.112256</v>
+      </c>
+      <c r="I17">
+        <v>0.001802734389114475</v>
+      </c>
+      <c r="J17">
+        <v>0.001802734389114475</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.079938333333333</v>
+      </c>
+      <c r="N17">
+        <v>3.239815</v>
+      </c>
+      <c r="O17">
+        <v>0.04287966636655804</v>
+      </c>
+      <c r="P17">
+        <v>0.04287966636655803</v>
+      </c>
+      <c r="Q17">
+        <v>0.04040985251555555</v>
+      </c>
+      <c r="R17">
+        <v>0.3636886726399999</v>
+      </c>
+      <c r="S17">
+        <v>7.730064915274951E-05</v>
+      </c>
+      <c r="T17">
+        <v>7.730064915274948E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.03741866666666666</v>
+      </c>
+      <c r="H18">
+        <v>0.112256</v>
+      </c>
+      <c r="I18">
+        <v>0.001802734389114475</v>
+      </c>
+      <c r="J18">
+        <v>0.001802734389114475</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.265959</v>
+      </c>
+      <c r="N18">
+        <v>0.7978769999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.01056007814074267</v>
+      </c>
+      <c r="P18">
+        <v>0.01056007814074267</v>
+      </c>
+      <c r="Q18">
+        <v>0.009951831167999999</v>
+      </c>
+      <c r="R18">
+        <v>0.08956648051199999</v>
+      </c>
+      <c r="S18">
+        <v>1.903701601605287E-05</v>
+      </c>
+      <c r="T18">
+        <v>1.903701601605286E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.03741866666666666</v>
+      </c>
+      <c r="H19">
+        <v>0.112256</v>
+      </c>
+      <c r="I19">
+        <v>0.001802734389114475</v>
+      </c>
+      <c r="J19">
+        <v>0.001802734389114475</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>8.927132333333335</v>
+      </c>
+      <c r="N19">
+        <v>26.781397</v>
+      </c>
+      <c r="O19">
+        <v>0.3544576984149831</v>
+      </c>
+      <c r="P19">
+        <v>0.3544576984149831</v>
+      </c>
+      <c r="Q19">
+        <v>0.3340413890702222</v>
+      </c>
+      <c r="R19">
+        <v>3.006372501632</v>
+      </c>
+      <c r="S19">
+        <v>0.0006389930824190575</v>
+      </c>
+      <c r="T19">
+        <v>0.0006389930824190573</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.9925623333333333</v>
+      </c>
+      <c r="H20">
+        <v>2.977687</v>
+      </c>
+      <c r="I20">
+        <v>0.0478190809838148</v>
+      </c>
+      <c r="J20">
+        <v>0.04781908098381479</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>12.64154566666667</v>
+      </c>
+      <c r="N20">
+        <v>37.924637</v>
+      </c>
+      <c r="O20">
+        <v>0.5019409384896431</v>
+      </c>
+      <c r="P20">
+        <v>0.5019409384896429</v>
+      </c>
+      <c r="Q20">
+        <v>12.54752206384656</v>
+      </c>
+      <c r="R20">
+        <v>112.927698574619</v>
+      </c>
+      <c r="S20">
+        <v>0.02400235438672824</v>
+      </c>
+      <c r="T20">
+        <v>0.02400235438672824</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.9925623333333333</v>
+      </c>
+      <c r="H21">
+        <v>2.977687</v>
+      </c>
+      <c r="I21">
+        <v>0.0478190809838148</v>
+      </c>
+      <c r="J21">
+        <v>0.04781908098381479</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.291159666666667</v>
+      </c>
+      <c r="N21">
+        <v>3.873479</v>
+      </c>
+      <c r="O21">
+        <v>0.05126634921989955</v>
+      </c>
+      <c r="P21">
+        <v>0.05126634921989955</v>
+      </c>
+      <c r="Q21">
+        <v>1.281556451452555</v>
+      </c>
+      <c r="R21">
+        <v>11.534008063073</v>
+      </c>
+      <c r="S21">
+        <v>0.002451509705090907</v>
+      </c>
+      <c r="T21">
+        <v>0.002451509705090907</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.9925623333333333</v>
+      </c>
+      <c r="H22">
+        <v>2.977687</v>
+      </c>
+      <c r="I22">
+        <v>0.0478190809838148</v>
+      </c>
+      <c r="J22">
+        <v>0.04781908098381479</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.97959</v>
+      </c>
+      <c r="N22">
+        <v>2.93877</v>
+      </c>
+      <c r="O22">
+        <v>0.03889526936817373</v>
+      </c>
+      <c r="P22">
+        <v>0.03889526936817372</v>
+      </c>
+      <c r="Q22">
+        <v>0.97230413611</v>
+      </c>
+      <c r="R22">
+        <v>8.750737224989999</v>
+      </c>
+      <c r="S22">
+        <v>0.001859936035803991</v>
+      </c>
+      <c r="T22">
+        <v>0.00185993603580399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.9925623333333333</v>
+      </c>
+      <c r="H23">
+        <v>2.977687</v>
+      </c>
+      <c r="I23">
+        <v>0.0478190809838148</v>
+      </c>
+      <c r="J23">
+        <v>0.04781908098381479</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.079938333333333</v>
+      </c>
+      <c r="N23">
+        <v>3.239815</v>
+      </c>
+      <c r="O23">
+        <v>0.04287966636655804</v>
+      </c>
+      <c r="P23">
+        <v>0.04287966636655803</v>
+      </c>
+      <c r="Q23">
+        <v>1.071906111989444</v>
+      </c>
+      <c r="R23">
+        <v>9.647155007904999</v>
+      </c>
+      <c r="S23">
+        <v>0.002050466238541398</v>
+      </c>
+      <c r="T23">
+        <v>0.002050466238541398</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.801515116739338</v>
-      </c>
-      <c r="H16">
-        <v>0.801515116739338</v>
-      </c>
-      <c r="I16">
-        <v>0.04589334148931994</v>
-      </c>
-      <c r="J16">
-        <v>0.04589334148931994</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>8.82028726416392</v>
-      </c>
-      <c r="N16">
-        <v>8.82028726416392</v>
-      </c>
-      <c r="O16">
-        <v>0.4224228031166647</v>
-      </c>
-      <c r="P16">
-        <v>0.4224228031166647</v>
-      </c>
-      <c r="Q16">
-        <v>7.06959357621084</v>
-      </c>
-      <c r="R16">
-        <v>7.06959357621084</v>
-      </c>
-      <c r="S16">
-        <v>0.01938639395630886</v>
-      </c>
-      <c r="T16">
-        <v>0.01938639395630886</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.9925623333333333</v>
+      </c>
+      <c r="H24">
+        <v>2.977687</v>
+      </c>
+      <c r="I24">
+        <v>0.0478190809838148</v>
+      </c>
+      <c r="J24">
+        <v>0.04781908098381479</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.265959</v>
+      </c>
+      <c r="N24">
+        <v>0.7978769999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.01056007814074267</v>
+      </c>
+      <c r="P24">
+        <v>0.01056007814074267</v>
+      </c>
+      <c r="Q24">
+        <v>0.263980885611</v>
+      </c>
+      <c r="R24">
+        <v>2.375827970499</v>
+      </c>
+      <c r="S24">
+        <v>0.0005049732318075864</v>
+      </c>
+      <c r="T24">
+        <v>0.0005049732318075863</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.9925623333333333</v>
+      </c>
+      <c r="H25">
+        <v>2.977687</v>
+      </c>
+      <c r="I25">
+        <v>0.0478190809838148</v>
+      </c>
+      <c r="J25">
+        <v>0.04781908098381479</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>8.927132333333335</v>
+      </c>
+      <c r="N25">
+        <v>26.781397</v>
+      </c>
+      <c r="O25">
+        <v>0.3544576984149831</v>
+      </c>
+      <c r="P25">
+        <v>0.3544576984149831</v>
+      </c>
+      <c r="Q25">
+        <v>8.860735298748779</v>
+      </c>
+      <c r="R25">
+        <v>79.74661768873901</v>
+      </c>
+      <c r="S25">
+        <v>0.01694984138584268</v>
+      </c>
+      <c r="T25">
+        <v>0.01694984138584268</v>
       </c>
     </row>
   </sheetData>
